--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>CIF</t>
   </si>
   <si>
-    <t>1669141546</t>
+    <t>starty</t>
   </si>
   <si>
     <t>User Test</t>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Diamond Elite</t>
   </si>
 </sst>
 </file>
@@ -105,7 +102,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>4</v>
